--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,321 +32,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="107">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -437,13 +443,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -475,15 +485,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,62 +528,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -581,21 +591,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -610,35 +628,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -655,7 +673,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -672,7 +690,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -689,7 +707,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -706,7 +724,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -723,7 +741,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -741,7 +759,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -756,32 +774,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -795,7 +813,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -809,7 +827,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -823,7 +841,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -837,7 +855,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -851,7 +869,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -865,7 +883,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -879,7 +897,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -893,7 +911,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -907,7 +925,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -921,7 +939,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -935,7 +953,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -949,7 +967,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -964,7 +982,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -979,32 +997,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1018,7 +1036,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1032,7 +1050,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1046,7 +1064,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1060,7 +1078,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1074,7 +1092,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1088,7 +1106,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1102,7 +1120,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1116,7 +1134,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1130,7 +1148,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1144,7 +1162,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1158,7 +1176,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1172,7 +1190,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1186,7 +1204,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1200,7 +1218,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1214,7 +1232,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1228,7 +1246,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1242,7 +1260,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1256,7 +1274,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1270,7 +1288,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1285,7 +1303,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1300,74 +1318,74 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1378,19 +1396,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1401,22 +1419,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1427,19 +1445,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1450,22 +1468,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1476,10 +1494,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1490,10 +1508,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1504,10 +1522,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1518,10 +1536,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1532,10 +1550,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1546,10 +1564,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1560,10 +1578,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1575,7 +1593,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1590,83 +1608,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1731,7 +1749,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1796,7 +1814,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1861,7 +1879,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1926,7 +1944,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1991,7 +2009,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2056,7 +2074,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2121,7 +2139,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2186,7 +2204,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2251,7 +2269,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2316,7 +2334,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2381,7 +2399,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2446,7 +2464,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2512,7 +2530,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2527,41 +2545,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2578,10 +2596,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2598,10 +2616,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2618,10 +2636,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2638,10 +2656,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2658,10 +2676,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2678,10 +2696,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2698,10 +2716,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2718,10 +2736,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2738,10 +2756,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2758,10 +2776,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2778,10 +2796,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2798,10 +2816,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2818,10 +2836,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2838,10 +2856,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2858,10 +2876,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2878,10 +2896,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2898,10 +2916,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2918,10 +2936,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2938,10 +2956,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2959,7 +2977,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2974,38 +2992,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3016,10 +3034,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3030,10 +3048,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3044,10 +3062,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3058,10 +3076,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3072,10 +3090,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3086,10 +3104,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3100,10 +3118,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3114,10 +3132,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3128,10 +3146,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3142,10 +3160,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3156,10 +3174,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3170,10 +3188,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3185,7 +3203,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3200,89 +3218,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3297,124 +3315,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3429,124 +3447,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3561,29 +3579,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3594,7 +3612,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3605,7 +3623,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3616,7 +3634,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3627,7 +3645,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3638,7 +3656,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3649,7 +3667,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3660,7 +3678,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3671,7 +3689,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3682,7 +3700,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3693,7 +3711,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3704,7 +3722,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3715,7 +3733,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3727,7 +3745,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3742,29 +3760,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3775,7 +3793,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3786,7 +3804,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3797,7 +3815,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3808,7 +3826,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3819,7 +3837,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3841,7 +3859,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3852,7 +3870,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3863,7 +3881,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3874,7 +3892,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3885,7 +3903,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3896,7 +3914,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3907,7 +3925,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3918,7 +3936,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3929,7 +3947,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3940,7 +3958,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3951,7 +3969,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3962,7 +3980,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3973,7 +3991,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3985,7 +4003,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -485,10 +467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,24 +486,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -580,6 +562,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -589,27 +574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -629,7 +596,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -639,24 +606,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -673,7 +640,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -690,7 +657,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -707,7 +674,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -724,7 +691,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -741,7 +708,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -775,7 +742,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -785,21 +752,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -813,7 +780,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -827,7 +794,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -841,7 +808,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -855,7 +822,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -869,7 +836,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -883,7 +850,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -897,7 +864,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -911,7 +878,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -925,7 +892,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -939,7 +906,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -953,7 +920,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -967,7 +934,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -998,7 +965,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,21 +975,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1036,7 +1003,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1050,7 +1017,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1064,7 +1031,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1078,7 +1045,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1092,7 +1059,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1106,7 +1073,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1120,7 +1087,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1134,7 +1101,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1148,7 +1115,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1162,7 +1129,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1176,7 +1143,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1190,7 +1157,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1204,7 +1171,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1218,7 +1185,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1232,7 +1199,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1246,7 +1213,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1260,7 +1227,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1274,7 +1241,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1288,7 +1255,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1319,7 +1286,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B3 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1328,64 +1295,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1396,19 +1363,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1419,22 +1386,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1445,19 +1412,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1468,22 +1435,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1494,10 +1461,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1508,10 +1475,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1522,10 +1489,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1536,10 +1503,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1550,10 +1517,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1564,10 +1531,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1578,10 +1545,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1609,7 +1576,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,72 +1586,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1749,7 +1716,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1814,7 +1781,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1879,7 +1846,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1944,7 +1911,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2009,7 +1976,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2074,7 +2041,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2139,7 +2106,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2204,7 +2171,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2269,7 +2236,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2334,7 +2301,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2399,7 +2366,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2464,7 +2431,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2543,434 +2510,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2990,214 +2832,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3020,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3229,72 +3030,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3117,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3326,107 +3127,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3249,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3458,107 +3259,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3381,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3590,18 +3391,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3612,7 +3413,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3623,7 +3424,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3634,7 +3435,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3645,7 +3446,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3656,7 +3457,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3667,7 +3468,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3678,7 +3479,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3689,7 +3490,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3700,7 +3501,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3711,7 +3512,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3523,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3733,7 +3534,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3761,7 +3562,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3771,18 +3572,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3793,7 +3594,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3804,7 +3605,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3815,7 +3616,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3826,7 +3627,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3837,7 +3638,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3848,7 +3649,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3859,7 +3660,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3870,7 +3671,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3881,7 +3682,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3892,7 +3693,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3903,7 +3704,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3914,7 +3715,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3925,7 +3726,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3737,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3947,7 +3748,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3958,7 +3759,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3969,7 +3770,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3980,7 +3781,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3991,7 +3792,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="X7" activeCellId="0" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,7 +596,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +965,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B3 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2835,7 +2835,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3020,7 +3020,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3117,7 +3117,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3249,7 +3249,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3381,7 +3381,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3562,7 +3562,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="100">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -438,12 +435,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -469,7 +466,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X7" activeCellId="0" sqref="X7"/>
     </sheetView>
   </sheetViews>
@@ -606,19 +603,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,16 +749,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,16 +972,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,40 +1299,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,13 +1340,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1366,16 +1363,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1389,16 +1386,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1415,16 +1412,16 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1438,16 +1435,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>26</v>
@@ -1464,7 +1461,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1478,7 +1475,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1492,7 +1489,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1506,7 +1503,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1520,7 +1517,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1534,7 +1531,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1548,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2510,16 +2507,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,21 +2529,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2554,13 +2545,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2568,13 +2556,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2582,13 +2567,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2596,111 +2578,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,13 +2666,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,13 +2677,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2736,13 +2688,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2750,13 +2699,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2764,13 +2710,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2778,13 +2721,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2792,13 +2732,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2806,13 +2743,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2849,20 +2783,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2873,7 +2807,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2884,7 +2818,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2895,7 +2829,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2906,7 +2840,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2917,7 +2851,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2928,7 +2862,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2939,7 +2873,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2950,7 +2884,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2961,7 +2895,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2972,7 +2906,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2983,7 +2917,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2994,7 +2928,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3127,7 +3061,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3193,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,13 +3325,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,13 +3506,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="100">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -590,152 +589,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -954,7 +807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1275,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2509,7 +2362,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2951,9 +2804,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2964,72 +2817,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3180,138 +3068,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3488,7 +3244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3744,4 +3500,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -421,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,6 +441,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -465,8 +478,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X7" activeCellId="0" sqref="X7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,64 +527,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -592,7 +619,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,21 +629,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -630,7 +657,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -644,7 +671,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -658,7 +685,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -672,7 +699,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -686,7 +713,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -700,7 +727,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -714,7 +741,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -728,7 +755,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -742,7 +769,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -756,7 +783,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -770,7 +797,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -784,7 +811,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -815,7 +842,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,21 +852,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -853,7 +880,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -867,7 +894,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -881,7 +908,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -895,7 +922,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -909,7 +936,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -923,7 +950,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -937,7 +964,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -951,7 +978,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -965,7 +992,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -979,7 +1006,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -993,7 +1020,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1007,7 +1034,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1021,7 +1048,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1062,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1049,7 +1076,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1063,7 +1090,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1104,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1091,7 +1118,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1105,7 +1132,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1136,7 +1163,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A6:B7 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1152,57 +1179,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1213,19 +1240,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1236,22 +1263,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1262,19 +1289,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1285,22 +1312,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1311,10 +1338,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1325,10 +1352,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1339,10 +1366,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1353,10 +1380,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1367,10 +1394,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1381,10 +1408,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1395,10 +1422,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1426,7 +1453,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1436,72 +1463,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1566,7 +1593,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1631,7 +1658,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1696,7 +1723,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1761,7 +1788,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1826,7 +1853,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1891,7 +1918,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1956,7 +1983,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2021,7 +2048,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2086,7 +2113,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2151,7 +2178,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2216,7 +2243,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2281,7 +2308,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2363,7 +2390,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2374,21 +2401,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2396,10 +2423,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2407,10 +2434,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2418,10 +2445,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2429,10 +2456,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2440,10 +2467,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2451,10 +2478,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2462,10 +2489,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2473,10 +2500,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2484,10 +2511,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2495,10 +2522,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2506,10 +2533,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2517,10 +2544,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2528,10 +2555,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2539,10 +2566,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2550,10 +2577,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2561,10 +2588,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2572,10 +2599,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2583,10 +2610,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2594,10 +2621,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2622,7 +2649,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2633,24 +2660,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2658,10 +2685,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2669,10 +2696,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2680,10 +2707,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2691,10 +2718,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2702,10 +2729,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2713,10 +2740,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2724,10 +2751,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2735,10 +2762,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2746,10 +2773,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2757,10 +2784,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2768,10 +2795,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2779,10 +2806,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2806,8 +2833,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2817,107 +2844,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2966,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2949,107 +2976,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3098,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3081,18 +3108,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3103,7 +3130,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3114,7 +3141,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3125,7 +3152,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3136,7 +3163,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3147,7 +3174,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3158,7 +3185,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3169,7 +3196,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3180,7 +3207,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3191,7 +3218,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3202,7 +3229,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3213,7 +3240,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3224,7 +3251,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3252,7 +3279,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3262,18 +3289,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3284,7 +3311,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3295,7 +3322,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3306,7 +3333,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3317,7 +3344,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3328,7 +3355,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3339,7 +3366,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3350,7 +3377,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3361,7 +3388,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3372,7 +3399,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3383,7 +3410,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3394,7 +3421,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3405,7 +3432,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3416,7 +3443,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3427,7 +3454,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3438,7 +3465,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3449,7 +3476,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3460,7 +3487,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3471,7 +3498,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3482,7 +3509,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3510,7 +3537,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3520,24 +3547,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3554,7 +3581,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3571,7 +3598,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3588,7 +3615,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3605,7 +3632,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3622,7 +3649,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
